--- a/src/output/results6.xlsx
+++ b/src/output/results6.xlsx
@@ -336,7 +336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B365"/>
+  <dimension ref="A1:E365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -346,498 +346,1056 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>5235.0</v>
+        <v>0.0</v>
       </c>
       <c r="B1" t="n">
-        <v>1266.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5187.0</v>
+        <v>0.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1241.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4533.0</v>
+        <v>0.0</v>
       </c>
       <c r="B3" t="n">
-        <v>1377.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4063.0</v>
+        <v>1.0</v>
       </c>
       <c r="B4" t="n">
-        <v>1878.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3701.0</v>
+        <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>1999.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3593.0</v>
+        <v>6.0</v>
       </c>
       <c r="B6" t="n">
-        <v>1817.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3275.0</v>
+        <v>11.0</v>
       </c>
       <c r="B7" t="n">
-        <v>1746.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2952.0</v>
+        <v>19.0</v>
       </c>
       <c r="B8" t="n">
-        <v>1540.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3023.0</v>
+        <v>30.0</v>
       </c>
       <c r="B9" t="n">
-        <v>1511.0</v>
+        <v>30.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2867.0</v>
+        <v>35.0</v>
       </c>
       <c r="B10" t="n">
-        <v>1500.0</v>
+        <v>34.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2915.0</v>
+        <v>43.0</v>
       </c>
       <c r="B11" t="n">
-        <v>1361.0</v>
+        <v>42.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2708.0</v>
+        <v>56.0</v>
       </c>
       <c r="B12" t="n">
-        <v>1330.0</v>
+        <v>53.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2811.0</v>
+        <v>63.0</v>
       </c>
       <c r="B13" t="n">
-        <v>1254.0</v>
+        <v>58.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2757.0</v>
+        <v>77.0</v>
       </c>
       <c r="B14" t="n">
-        <v>1261.0</v>
+        <v>70.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2637.0</v>
+        <v>89.0</v>
       </c>
       <c r="B15" t="n">
-        <v>1183.0</v>
+        <v>81.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2767.0</v>
+        <v>99.0</v>
       </c>
       <c r="B16" t="n">
-        <v>1222.0</v>
+        <v>88.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2662.0</v>
+        <v>111.0</v>
       </c>
       <c r="B17" t="n">
-        <v>1129.0</v>
+        <v>98.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2643.0</v>
+        <v>123.0</v>
       </c>
       <c r="B18" t="n">
-        <v>1113.0</v>
+        <v>102.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2628.0</v>
+        <v>138.0</v>
       </c>
       <c r="B19" t="n">
-        <v>1171.0</v>
+        <v>109.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2634.0</v>
+        <v>156.0</v>
       </c>
       <c r="B20" t="n">
-        <v>1124.0</v>
+        <v>120.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2625.0</v>
+        <v>180.0</v>
       </c>
       <c r="B21" t="n">
-        <v>1103.0</v>
+        <v>142.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2585.0</v>
+        <v>204.0</v>
       </c>
       <c r="B22" t="n">
-        <v>1126.0</v>
+        <v>162.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2575.0</v>
+        <v>236.0</v>
       </c>
       <c r="B23" t="n">
-        <v>1122.0</v>
+        <v>183.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2586.0</v>
+        <v>257.0</v>
       </c>
       <c r="B24" t="n">
-        <v>1080.0</v>
+        <v>196.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2582.0</v>
+        <v>289.0</v>
       </c>
       <c r="B25" t="n">
-        <v>1035.0</v>
+        <v>220.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2615.0</v>
+        <v>334.0</v>
       </c>
       <c r="B26" t="n">
-        <v>1112.0</v>
+        <v>250.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>84.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2597.0</v>
+        <v>363.0</v>
       </c>
       <c r="B27" t="n">
-        <v>1102.0</v>
+        <v>265.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>98.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2532.0</v>
+        <v>405.0</v>
       </c>
       <c r="B28" t="n">
-        <v>1121.0</v>
+        <v>294.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>111.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2519.0</v>
+        <v>473.0</v>
       </c>
       <c r="B29" t="n">
-        <v>1098.0</v>
+        <v>347.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>126.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2529.0</v>
+        <v>529.0</v>
       </c>
       <c r="B30" t="n">
-        <v>1087.0</v>
+        <v>389.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>140.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2542.0</v>
+        <v>614.0</v>
       </c>
       <c r="B31" t="n">
-        <v>1062.0</v>
+        <v>462.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>152.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3129.0</v>
+        <v>693.0</v>
       </c>
       <c r="B32" t="n">
-        <v>1053.0</v>
+        <v>517.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>176.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3197.0</v>
+        <v>761.0</v>
       </c>
       <c r="B33" t="n">
-        <v>1073.0</v>
+        <v>565.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>195.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3044.0</v>
+        <v>868.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1134.0</v>
+        <v>646.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>221.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3089.0</v>
+        <v>981.0</v>
       </c>
       <c r="B35" t="n">
-        <v>1219.0</v>
+        <v>724.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>255.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4157.0</v>
+        <v>1101.0</v>
       </c>
       <c r="B36" t="n">
-        <v>1361.0</v>
+        <v>808.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>289.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4176.0</v>
+        <v>1248.0</v>
       </c>
       <c r="B37" t="n">
-        <v>1415.0</v>
+        <v>914.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>330.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4476.0</v>
+        <v>1409.0</v>
       </c>
       <c r="B38" t="n">
-        <v>1467.0</v>
+        <v>1039.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>365.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5235.0</v>
+        <v>1599.0</v>
       </c>
       <c r="B39" t="n">
-        <v>1700.0</v>
+        <v>1179.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>414.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5827.0</v>
+        <v>1778.0</v>
       </c>
       <c r="B40" t="n">
-        <v>1879.0</v>
+        <v>1304.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>467.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5210.0</v>
+        <v>1991.0</v>
       </c>
       <c r="B41" t="n">
-        <v>2021.0</v>
+        <v>1441.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>213.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>540.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5036.0</v>
+        <v>2239.0</v>
       </c>
       <c r="B42" t="n">
-        <v>2277.0</v>
+        <v>1617.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>248.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>611.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>7050.0</v>
+        <v>2483.0</v>
       </c>
       <c r="B43" t="n">
-        <v>2469.0</v>
+        <v>1787.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>244.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>685.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6441.0</v>
+        <v>2779.0</v>
       </c>
       <c r="B44" t="n">
-        <v>2372.0</v>
+        <v>2016.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>296.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>752.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>7190.0</v>
+        <v>3098.0</v>
       </c>
       <c r="B45" t="n">
-        <v>2551.0</v>
+        <v>2246.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>319.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>840.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7902.0</v>
+        <v>3437.0</v>
       </c>
       <c r="B46" t="n">
-        <v>2856.0</v>
+        <v>2473.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>339.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>950.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8343.0</v>
+        <v>3823.0</v>
       </c>
       <c r="B47" t="n">
-        <v>2995.0</v>
+        <v>2731.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>386.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1077.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7641.0</v>
+        <v>4218.0</v>
       </c>
       <c r="B48" t="n">
-        <v>3255.0</v>
+        <v>2978.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>395.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1222.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6974.0</v>
+        <v>4641.0</v>
       </c>
       <c r="B49" t="n">
-        <v>3596.0</v>
+        <v>3258.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>423.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1363.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>10121.0</v>
+        <v>5140.0</v>
       </c>
       <c r="B50" t="n">
         <v>3606.0</v>
       </c>
+      <c r="C50" t="n">
+        <v>499.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1511.0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>8953.0</v>
+        <v>5671.0</v>
       </c>
       <c r="B51" t="n">
-        <v>3486.0</v>
+        <v>3957.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>531.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1690.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9492.0</v>
+        <v>6211.0</v>
       </c>
       <c r="B52" t="n">
-        <v>3736.0</v>
+        <v>4316.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>540.0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1870.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>10729.0</v>
+        <v>6835.0</v>
       </c>
       <c r="B53" t="n">
-        <v>4177.0</v>
+        <v>4685.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>624.0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2123.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>11284.0</v>
+        <v>7483.0</v>
       </c>
       <c r="B54" t="n">
-        <v>4088.0</v>
+        <v>5071.0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>648.0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2380.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>10005.0</v>
+        <v>8190.0</v>
       </c>
       <c r="B55" t="n">
-        <v>4243.0</v>
+        <v>5499.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>707.0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2657.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9348.0</v>
+        <v>8944.0</v>
       </c>
       <c r="B56" t="n">
-        <v>4842.0</v>
+        <v>5996.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>754.0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2909.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>13049.0</v>
+        <v>9738.0</v>
       </c>
       <c r="B57" t="n">
-        <v>4960.0</v>
+        <v>6475.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>794.0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3221.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>11847.0</v>
+        <v>10556.0</v>
       </c>
       <c r="B58" t="n">
-        <v>4640.0</v>
+        <v>6944.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>818.0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3567.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>12206.0</v>
+        <v>11425.0</v>
       </c>
       <c r="B59" t="n">
-        <v>4950.0</v>
+        <v>7435.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>869.0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3939.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>13542.0</v>
+        <v>12394.0</v>
       </c>
       <c r="B60" t="n">
-        <v>5382.0</v>
+        <v>7980.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>969.0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4356.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>14126.0</v>
+        <v>13408.0</v>
       </c>
       <c r="B61" t="n">
-        <v>5345.0</v>
+        <v>8500.0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1014.0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4844.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>12357.0</v>
+        <v>14432.0</v>
       </c>
       <c r="B62" t="n">
-        <v>5644.0</v>
+        <v>9065.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1024.0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>5297.0</v>
       </c>
     </row>
     <row r="63">

--- a/src/output/results6.xlsx
+++ b/src/output/results6.xlsx
@@ -346,10 +346,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
       <c r="B1" t="n">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
       <c r="C1" t="n">
         <v>0.0</v>
@@ -363,13 +363,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0</v>
+        <v>85.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0</v>
+        <v>85.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
@@ -380,13 +380,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0</v>
+        <v>92.0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0</v>
+        <v>92.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
@@ -397,13 +397,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.0</v>
+        <v>98.0</v>
       </c>
       <c r="B4" t="n">
-        <v>1.0</v>
+        <v>98.0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
@@ -414,13 +414,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.0</v>
+        <v>103.0</v>
       </c>
       <c r="B5" t="n">
-        <v>2.0</v>
+        <v>103.0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
@@ -431,13 +431,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.0</v>
+        <v>113.0</v>
       </c>
       <c r="B6" t="n">
-        <v>6.0</v>
+        <v>113.0</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0</v>
@@ -448,13 +448,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7.0</v>
+        <v>118.0</v>
       </c>
       <c r="B7" t="n">
-        <v>7.0</v>
+        <v>118.0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D7" t="n">
         <v>0.0</v>
@@ -465,13 +465,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10.0</v>
+        <v>127.0</v>
       </c>
       <c r="B8" t="n">
-        <v>10.0</v>
+        <v>127.0</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
@@ -482,13 +482,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>16.0</v>
+        <v>140.0</v>
       </c>
       <c r="B9" t="n">
-        <v>16.0</v>
+        <v>140.0</v>
       </c>
       <c r="C9" t="n">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
@@ -499,903 +499,903 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>25.0</v>
+        <v>150.0</v>
       </c>
       <c r="B10" t="n">
-        <v>25.0</v>
+        <v>148.0</v>
       </c>
       <c r="C10" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="D10" t="n">
         <v>0.0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>36.0</v>
+        <v>164.0</v>
       </c>
       <c r="B11" t="n">
-        <v>36.0</v>
+        <v>162.0</v>
       </c>
       <c r="C11" t="n">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
       <c r="D11" t="n">
         <v>0.0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>45.0</v>
+        <v>169.0</v>
       </c>
       <c r="B12" t="n">
-        <v>44.0</v>
+        <v>163.0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="D12" t="n">
         <v>0.0</v>
       </c>
       <c r="E12" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>51.0</v>
+        <v>189.0</v>
       </c>
       <c r="B13" t="n">
-        <v>50.0</v>
+        <v>181.0</v>
       </c>
       <c r="C13" t="n">
-        <v>6.0</v>
+        <v>20.0</v>
       </c>
       <c r="D13" t="n">
         <v>0.0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>59.0</v>
+        <v>206.0</v>
       </c>
       <c r="B14" t="n">
-        <v>56.0</v>
+        <v>197.0</v>
       </c>
       <c r="C14" t="n">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
       <c r="D14" t="n">
         <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>78.0</v>
+        <v>231.0</v>
       </c>
       <c r="B15" t="n">
-        <v>75.0</v>
+        <v>211.0</v>
       </c>
       <c r="C15" t="n">
-        <v>19.0</v>
+        <v>25.0</v>
       </c>
       <c r="D15" t="n">
         <v>0.0</v>
       </c>
       <c r="E15" t="n">
-        <v>3.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>102.0</v>
+        <v>252.0</v>
       </c>
       <c r="B16" t="n">
-        <v>96.0</v>
+        <v>229.0</v>
       </c>
       <c r="C16" t="n">
-        <v>24.0</v>
+        <v>21.0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E16" t="n">
-        <v>6.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>113.0</v>
+        <v>286.0</v>
       </c>
       <c r="B17" t="n">
-        <v>104.0</v>
+        <v>259.0</v>
       </c>
       <c r="C17" t="n">
-        <v>11.0</v>
+        <v>34.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E17" t="n">
-        <v>8.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>135.0</v>
+        <v>325.0</v>
       </c>
       <c r="B18" t="n">
-        <v>119.0</v>
+        <v>291.0</v>
       </c>
       <c r="C18" t="n">
-        <v>22.0</v>
+        <v>39.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E18" t="n">
-        <v>15.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>156.0</v>
+        <v>364.0</v>
       </c>
       <c r="B19" t="n">
-        <v>135.0</v>
+        <v>323.0</v>
       </c>
       <c r="C19" t="n">
-        <v>21.0</v>
+        <v>39.0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E19" t="n">
-        <v>20.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>193.0</v>
+        <v>411.0</v>
       </c>
       <c r="B20" t="n">
-        <v>166.0</v>
+        <v>368.0</v>
       </c>
       <c r="C20" t="n">
-        <v>37.0</v>
+        <v>47.0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E20" t="n">
-        <v>26.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>220.0</v>
+        <v>452.0</v>
       </c>
       <c r="B21" t="n">
-        <v>186.0</v>
+        <v>395.0</v>
       </c>
       <c r="C21" t="n">
-        <v>27.0</v>
+        <v>41.0</v>
       </c>
       <c r="D21" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E21" t="n">
-        <v>32.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>256.0</v>
+        <v>499.0</v>
       </c>
       <c r="B22" t="n">
-        <v>215.0</v>
+        <v>432.0</v>
       </c>
       <c r="C22" t="n">
-        <v>36.0</v>
+        <v>47.0</v>
       </c>
       <c r="D22" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E22" t="n">
-        <v>39.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>303.0</v>
+        <v>562.0</v>
       </c>
       <c r="B23" t="n">
-        <v>259.0</v>
+        <v>481.0</v>
       </c>
       <c r="C23" t="n">
-        <v>47.0</v>
+        <v>63.0</v>
       </c>
       <c r="D23" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E23" t="n">
-        <v>42.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>356.0</v>
+        <v>627.0</v>
       </c>
       <c r="B24" t="n">
-        <v>302.0</v>
+        <v>534.0</v>
       </c>
       <c r="C24" t="n">
-        <v>53.0</v>
+        <v>65.0</v>
       </c>
       <c r="D24" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E24" t="n">
-        <v>52.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>406.0</v>
+        <v>692.0</v>
       </c>
       <c r="B25" t="n">
-        <v>343.0</v>
+        <v>584.0</v>
       </c>
       <c r="C25" t="n">
-        <v>50.0</v>
+        <v>65.0</v>
       </c>
       <c r="D25" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E25" t="n">
-        <v>61.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>464.0</v>
+        <v>768.0</v>
       </c>
       <c r="B26" t="n">
-        <v>386.0</v>
+        <v>636.0</v>
       </c>
       <c r="C26" t="n">
-        <v>58.0</v>
+        <v>76.0</v>
       </c>
       <c r="D26" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E26" t="n">
-        <v>76.0</v>
+        <v>127.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>513.0</v>
+        <v>845.0</v>
       </c>
       <c r="B27" t="n">
-        <v>421.0</v>
+        <v>691.0</v>
       </c>
       <c r="C27" t="n">
-        <v>49.0</v>
+        <v>77.0</v>
       </c>
       <c r="D27" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E27" t="n">
-        <v>90.0</v>
+        <v>149.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>576.0</v>
+        <v>916.0</v>
       </c>
       <c r="B28" t="n">
-        <v>462.0</v>
+        <v>744.0</v>
       </c>
       <c r="C28" t="n">
-        <v>63.0</v>
+        <v>71.0</v>
       </c>
       <c r="D28" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E28" t="n">
-        <v>112.0</v>
+        <v>167.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>663.0</v>
+        <v>996.0</v>
       </c>
       <c r="B29" t="n">
-        <v>523.0</v>
+        <v>789.0</v>
       </c>
       <c r="C29" t="n">
-        <v>87.0</v>
+        <v>80.0</v>
       </c>
       <c r="D29" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="E29" t="n">
-        <v>138.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>746.0</v>
+        <v>1091.0</v>
       </c>
       <c r="B30" t="n">
-        <v>582.0</v>
+        <v>860.0</v>
       </c>
       <c r="C30" t="n">
-        <v>83.0</v>
+        <v>95.0</v>
       </c>
       <c r="D30" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="E30" t="n">
-        <v>162.0</v>
+        <v>223.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>822.0</v>
+        <v>1184.0</v>
       </c>
       <c r="B31" t="n">
-        <v>628.0</v>
+        <v>920.0</v>
       </c>
       <c r="C31" t="n">
-        <v>76.0</v>
+        <v>93.0</v>
       </c>
       <c r="D31" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="E31" t="n">
-        <v>192.0</v>
+        <v>253.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>947.0</v>
+        <v>1286.0</v>
       </c>
       <c r="B32" t="n">
-        <v>725.0</v>
+        <v>979.0</v>
       </c>
       <c r="C32" t="n">
-        <v>125.0</v>
+        <v>102.0</v>
       </c>
       <c r="D32" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="E32" t="n">
-        <v>220.0</v>
+        <v>296.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1054.0</v>
+        <v>1400.0</v>
       </c>
       <c r="B33" t="n">
-        <v>793.0</v>
+        <v>1044.0</v>
       </c>
       <c r="C33" t="n">
-        <v>107.0</v>
+        <v>114.0</v>
       </c>
       <c r="D33" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="E33" t="n">
-        <v>259.0</v>
+        <v>344.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1176.0</v>
+        <v>1530.0</v>
       </c>
       <c r="B34" t="n">
-        <v>881.0</v>
+        <v>1123.0</v>
       </c>
       <c r="C34" t="n">
-        <v>122.0</v>
+        <v>130.0</v>
       </c>
       <c r="D34" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
       <c r="E34" t="n">
-        <v>293.0</v>
+        <v>394.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1313.0</v>
+        <v>1665.0</v>
       </c>
       <c r="B35" t="n">
-        <v>978.0</v>
+        <v>1202.0</v>
       </c>
       <c r="C35" t="n">
-        <v>137.0</v>
+        <v>135.0</v>
       </c>
       <c r="D35" t="n">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
       <c r="E35" t="n">
-        <v>332.0</v>
+        <v>450.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1473.0</v>
+        <v>1787.0</v>
       </c>
       <c r="B36" t="n">
-        <v>1091.0</v>
+        <v>1259.0</v>
       </c>
       <c r="C36" t="n">
-        <v>160.0</v>
+        <v>122.0</v>
       </c>
       <c r="D36" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="E36" t="n">
-        <v>378.0</v>
+        <v>514.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1656.0</v>
+        <v>1951.0</v>
       </c>
       <c r="B37" t="n">
-        <v>1209.0</v>
+        <v>1377.0</v>
       </c>
       <c r="C37" t="n">
-        <v>183.0</v>
+        <v>164.0</v>
       </c>
       <c r="D37" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="E37" t="n">
-        <v>443.0</v>
+        <v>560.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1865.0</v>
+        <v>2134.0</v>
       </c>
       <c r="B38" t="n">
-        <v>1352.0</v>
+        <v>1490.0</v>
       </c>
       <c r="C38" t="n">
-        <v>209.0</v>
+        <v>183.0</v>
       </c>
       <c r="D38" t="n">
-        <v>4.0</v>
+        <v>16.0</v>
       </c>
       <c r="E38" t="n">
-        <v>509.0</v>
+        <v>628.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2085.0</v>
+        <v>2339.0</v>
       </c>
       <c r="B39" t="n">
-        <v>1500.0</v>
+        <v>1617.0</v>
       </c>
       <c r="C39" t="n">
-        <v>220.0</v>
+        <v>205.0</v>
       </c>
       <c r="D39" t="n">
-        <v>6.0</v>
+        <v>19.0</v>
       </c>
       <c r="E39" t="n">
-        <v>579.0</v>
+        <v>703.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2349.0</v>
+        <v>2542.0</v>
       </c>
       <c r="B40" t="n">
-        <v>1680.0</v>
+        <v>1745.0</v>
       </c>
       <c r="C40" t="n">
-        <v>264.0</v>
+        <v>203.0</v>
       </c>
       <c r="D40" t="n">
-        <v>9.0</v>
+        <v>20.0</v>
       </c>
       <c r="E40" t="n">
-        <v>660.0</v>
+        <v>777.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2631.0</v>
+        <v>2751.0</v>
       </c>
       <c r="B41" t="n">
-        <v>1890.0</v>
+        <v>1875.0</v>
       </c>
       <c r="C41" t="n">
-        <v>282.0</v>
+        <v>209.0</v>
       </c>
       <c r="D41" t="n">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
       <c r="E41" t="n">
-        <v>731.0</v>
+        <v>855.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2886.0</v>
+        <v>3031.0</v>
       </c>
       <c r="B42" t="n">
-        <v>2058.0</v>
+        <v>2051.0</v>
       </c>
       <c r="C42" t="n">
-        <v>255.0</v>
+        <v>280.0</v>
       </c>
       <c r="D42" t="n">
-        <v>11.0</v>
+        <v>24.0</v>
       </c>
       <c r="E42" t="n">
-        <v>817.0</v>
+        <v>956.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3205.0</v>
+        <v>3339.0</v>
       </c>
       <c r="B43" t="n">
-        <v>2281.0</v>
+        <v>2265.0</v>
       </c>
       <c r="C43" t="n">
-        <v>319.0</v>
+        <v>308.0</v>
       </c>
       <c r="D43" t="n">
-        <v>16.0</v>
+        <v>30.0</v>
       </c>
       <c r="E43" t="n">
-        <v>908.0</v>
+        <v>1044.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3551.0</v>
+        <v>3654.0</v>
       </c>
       <c r="B44" t="n">
-        <v>2516.0</v>
+        <v>2474.0</v>
       </c>
       <c r="C44" t="n">
-        <v>346.0</v>
+        <v>315.0</v>
       </c>
       <c r="D44" t="n">
-        <v>17.0</v>
+        <v>32.0</v>
       </c>
       <c r="E44" t="n">
-        <v>1018.0</v>
+        <v>1148.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3931.0</v>
+        <v>4009.0</v>
       </c>
       <c r="B45" t="n">
-        <v>2783.0</v>
+        <v>2726.0</v>
       </c>
       <c r="C45" t="n">
-        <v>380.0</v>
+        <v>355.0</v>
       </c>
       <c r="D45" t="n">
-        <v>21.0</v>
+        <v>33.0</v>
       </c>
       <c r="E45" t="n">
-        <v>1127.0</v>
+        <v>1250.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4332.0</v>
+        <v>4392.0</v>
       </c>
       <c r="B46" t="n">
-        <v>3050.0</v>
+        <v>2996.0</v>
       </c>
       <c r="C46" t="n">
-        <v>401.0</v>
+        <v>383.0</v>
       </c>
       <c r="D46" t="n">
-        <v>21.0</v>
+        <v>36.0</v>
       </c>
       <c r="E46" t="n">
-        <v>1261.0</v>
+        <v>1360.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4818.0</v>
+        <v>4814.0</v>
       </c>
       <c r="B47" t="n">
-        <v>3356.0</v>
+        <v>3290.0</v>
       </c>
       <c r="C47" t="n">
-        <v>486.0</v>
+        <v>422.0</v>
       </c>
       <c r="D47" t="n">
-        <v>22.0</v>
+        <v>37.0</v>
       </c>
       <c r="E47" t="n">
-        <v>1440.0</v>
+        <v>1487.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5343.0</v>
+        <v>5306.0</v>
       </c>
       <c r="B48" t="n">
-        <v>3713.0</v>
+        <v>3633.0</v>
       </c>
       <c r="C48" t="n">
-        <v>525.0</v>
+        <v>492.0</v>
       </c>
       <c r="D48" t="n">
-        <v>25.0</v>
+        <v>37.0</v>
       </c>
       <c r="E48" t="n">
-        <v>1605.0</v>
+        <v>1636.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5962.0</v>
+        <v>5877.0</v>
       </c>
       <c r="B49" t="n">
-        <v>4115.0</v>
+        <v>4043.0</v>
       </c>
       <c r="C49" t="n">
-        <v>619.0</v>
+        <v>571.0</v>
       </c>
       <c r="D49" t="n">
-        <v>25.0</v>
+        <v>38.0</v>
       </c>
       <c r="E49" t="n">
-        <v>1822.0</v>
+        <v>1796.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>6621.0</v>
+        <v>6452.0</v>
       </c>
       <c r="B50" t="n">
-        <v>4541.0</v>
+        <v>4450.0</v>
       </c>
       <c r="C50" t="n">
-        <v>659.0</v>
+        <v>575.0</v>
       </c>
       <c r="D50" t="n">
-        <v>27.0</v>
+        <v>41.0</v>
       </c>
       <c r="E50" t="n">
-        <v>2053.0</v>
+        <v>1961.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>7314.0</v>
+        <v>7070.0</v>
       </c>
       <c r="B51" t="n">
-        <v>5011.0</v>
+        <v>4908.0</v>
       </c>
       <c r="C51" t="n">
-        <v>693.0</v>
+        <v>618.0</v>
       </c>
       <c r="D51" t="n">
-        <v>28.0</v>
+        <v>44.0</v>
       </c>
       <c r="E51" t="n">
-        <v>2275.0</v>
+        <v>2118.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>8126.0</v>
+        <v>7753.0</v>
       </c>
       <c r="B52" t="n">
-        <v>5592.0</v>
+        <v>5372.0</v>
       </c>
       <c r="C52" t="n">
-        <v>812.0</v>
+        <v>683.0</v>
       </c>
       <c r="D52" t="n">
-        <v>32.0</v>
+        <v>47.0</v>
       </c>
       <c r="E52" t="n">
-        <v>2502.0</v>
+        <v>2334.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>8999.0</v>
+        <v>8509.0</v>
       </c>
       <c r="B53" t="n">
-        <v>6198.0</v>
+        <v>5881.0</v>
       </c>
       <c r="C53" t="n">
-        <v>873.0</v>
+        <v>756.0</v>
       </c>
       <c r="D53" t="n">
-        <v>35.0</v>
+        <v>51.0</v>
       </c>
       <c r="E53" t="n">
-        <v>2766.0</v>
+        <v>2577.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>9957.0</v>
+        <v>9290.0</v>
       </c>
       <c r="B54" t="n">
-        <v>6839.0</v>
+        <v>6416.0</v>
       </c>
       <c r="C54" t="n">
-        <v>958.0</v>
+        <v>781.0</v>
       </c>
       <c r="D54" t="n">
-        <v>40.0</v>
+        <v>54.0</v>
       </c>
       <c r="E54" t="n">
-        <v>3078.0</v>
+        <v>2820.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>10944.0</v>
+        <v>10139.0</v>
       </c>
       <c r="B55" t="n">
-        <v>7488.0</v>
+        <v>6982.0</v>
       </c>
       <c r="C55" t="n">
-        <v>987.0</v>
+        <v>849.0</v>
       </c>
       <c r="D55" t="n">
-        <v>49.0</v>
+        <v>58.0</v>
       </c>
       <c r="E55" t="n">
-        <v>3407.0</v>
+        <v>3099.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>12031.0</v>
+        <v>10990.0</v>
       </c>
       <c r="B56" t="n">
-        <v>8173.0</v>
+        <v>7520.0</v>
       </c>
       <c r="C56" t="n">
-        <v>1087.0</v>
+        <v>851.0</v>
       </c>
       <c r="D56" t="n">
-        <v>55.0</v>
+        <v>61.0</v>
       </c>
       <c r="E56" t="n">
-        <v>3803.0</v>
+        <v>3409.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>13243.0</v>
+        <v>11894.0</v>
       </c>
       <c r="B57" t="n">
-        <v>8944.0</v>
+        <v>8088.0</v>
       </c>
       <c r="C57" t="n">
-        <v>1212.0</v>
+        <v>904.0</v>
       </c>
       <c r="D57" t="n">
-        <v>64.0</v>
+        <v>68.0</v>
       </c>
       <c r="E57" t="n">
-        <v>4235.0</v>
+        <v>3738.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>14543.0</v>
+        <v>12890.0</v>
       </c>
       <c r="B58" t="n">
-        <v>9725.0</v>
+        <v>8690.0</v>
       </c>
       <c r="C58" t="n">
-        <v>1300.0</v>
+        <v>996.0</v>
       </c>
       <c r="D58" t="n">
-        <v>69.0</v>
+        <v>74.0</v>
       </c>
       <c r="E58" t="n">
-        <v>4749.0</v>
+        <v>4126.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>16014.0</v>
+        <v>13921.0</v>
       </c>
       <c r="B59" t="n">
-        <v>10686.0</v>
+        <v>9303.0</v>
       </c>
       <c r="C59" t="n">
-        <v>1471.0</v>
+        <v>1031.0</v>
       </c>
       <c r="D59" t="n">
-        <v>79.0</v>
+        <v>83.0</v>
       </c>
       <c r="E59" t="n">
-        <v>5249.0</v>
+        <v>4535.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>17623.0</v>
+        <v>15032.0</v>
       </c>
       <c r="B60" t="n">
-        <v>11726.0</v>
+        <v>9936.0</v>
       </c>
       <c r="C60" t="n">
-        <v>1609.0</v>
+        <v>1111.0</v>
       </c>
       <c r="D60" t="n">
-        <v>89.0</v>
+        <v>90.0</v>
       </c>
       <c r="E60" t="n">
-        <v>5808.0</v>
+        <v>5006.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>19349.0</v>
+        <v>16183.0</v>
       </c>
       <c r="B61" t="n">
-        <v>12838.0</v>
+        <v>10568.0</v>
       </c>
       <c r="C61" t="n">
-        <v>1726.0</v>
+        <v>1151.0</v>
       </c>
       <c r="D61" t="n">
-        <v>103.0</v>
+        <v>96.0</v>
       </c>
       <c r="E61" t="n">
-        <v>6408.0</v>
+        <v>5519.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>21210.0</v>
+        <v>17390.0</v>
       </c>
       <c r="B62" t="n">
-        <v>14042.0</v>
+        <v>11227.0</v>
       </c>
       <c r="C62" t="n">
-        <v>1861.0</v>
+        <v>1207.0</v>
       </c>
       <c r="D62" t="n">
-        <v>111.0</v>
+        <v>105.0</v>
       </c>
       <c r="E62" t="n">
-        <v>7057.0</v>
+        <v>6058.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/output/results6.xlsx
+++ b/src/output/results6.xlsx
@@ -336,7 +336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="G60" sqref="G60"/>
@@ -346,13 +346,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>80.0</v>
+        <v>311.0</v>
       </c>
       <c r="B1" t="n">
-        <v>80.0</v>
+        <v>311.0</v>
       </c>
       <c r="C1" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="D1" t="n">
         <v>0.0</v>
@@ -363,13 +363,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>85.0</v>
+        <v>318.0</v>
       </c>
       <c r="B2" t="n">
-        <v>85.0</v>
+        <v>318.0</v>
       </c>
       <c r="C2" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
@@ -380,13 +380,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>92.0</v>
+        <v>333.0</v>
       </c>
       <c r="B3" t="n">
-        <v>92.0</v>
+        <v>333.0</v>
       </c>
       <c r="C3" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
@@ -397,13 +397,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98.0</v>
+        <v>357.0</v>
       </c>
       <c r="B4" t="n">
-        <v>98.0</v>
+        <v>357.0</v>
       </c>
       <c r="C4" t="n">
-        <v>6.0</v>
+        <v>24.0</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
@@ -414,13 +414,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>103.0</v>
+        <v>391.0</v>
       </c>
       <c r="B5" t="n">
-        <v>103.0</v>
+        <v>391.0</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>34.0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
@@ -431,13 +431,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>113.0</v>
+        <v>422.0</v>
       </c>
       <c r="B6" t="n">
-        <v>113.0</v>
+        <v>422.0</v>
       </c>
       <c r="C6" t="n">
-        <v>10.0</v>
+        <v>31.0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0</v>
@@ -448,13 +448,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>118.0</v>
+        <v>466.0</v>
       </c>
       <c r="B7" t="n">
-        <v>118.0</v>
+        <v>466.0</v>
       </c>
       <c r="C7" t="n">
-        <v>5.0</v>
+        <v>44.0</v>
       </c>
       <c r="D7" t="n">
         <v>0.0</v>
@@ -465,937 +465,2246 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>127.0</v>
+        <v>502.0</v>
       </c>
       <c r="B8" t="n">
-        <v>127.0</v>
+        <v>501.0</v>
       </c>
       <c r="C8" t="n">
-        <v>9.0</v>
+        <v>36.0</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>140.0</v>
+        <v>536.0</v>
       </c>
       <c r="B9" t="n">
-        <v>140.0</v>
+        <v>534.0</v>
       </c>
       <c r="C9" t="n">
-        <v>13.0</v>
+        <v>34.0</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>150.0</v>
+        <v>573.0</v>
       </c>
       <c r="B10" t="n">
-        <v>148.0</v>
+        <v>570.0</v>
       </c>
       <c r="C10" t="n">
-        <v>10.0</v>
+        <v>37.0</v>
       </c>
       <c r="D10" t="n">
         <v>0.0</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>164.0</v>
+        <v>614.0</v>
       </c>
       <c r="B11" t="n">
-        <v>162.0</v>
+        <v>606.0</v>
       </c>
       <c r="C11" t="n">
-        <v>14.0</v>
+        <v>41.0</v>
       </c>
       <c r="D11" t="n">
         <v>0.0</v>
       </c>
       <c r="E11" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>169.0</v>
+        <v>660.0</v>
       </c>
       <c r="B12" t="n">
-        <v>163.0</v>
+        <v>646.0</v>
       </c>
       <c r="C12" t="n">
-        <v>5.0</v>
+        <v>46.0</v>
       </c>
       <c r="D12" t="n">
         <v>0.0</v>
       </c>
       <c r="E12" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>189.0</v>
+        <v>685.0</v>
       </c>
       <c r="B13" t="n">
-        <v>181.0</v>
+        <v>658.0</v>
       </c>
       <c r="C13" t="n">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="D13" t="n">
         <v>0.0</v>
       </c>
       <c r="E13" t="n">
-        <v>8.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>206.0</v>
+        <v>742.0</v>
       </c>
       <c r="B14" t="n">
-        <v>197.0</v>
+        <v>704.0</v>
       </c>
       <c r="C14" t="n">
-        <v>17.0</v>
+        <v>57.0</v>
       </c>
       <c r="D14" t="n">
         <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>9.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>231.0</v>
+        <v>792.0</v>
       </c>
       <c r="B15" t="n">
-        <v>211.0</v>
+        <v>744.0</v>
       </c>
       <c r="C15" t="n">
-        <v>25.0</v>
+        <v>50.0</v>
       </c>
       <c r="D15" t="n">
         <v>0.0</v>
       </c>
       <c r="E15" t="n">
-        <v>20.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>252.0</v>
+        <v>840.0</v>
       </c>
       <c r="B16" t="n">
-        <v>229.0</v>
+        <v>776.0</v>
       </c>
       <c r="C16" t="n">
-        <v>21.0</v>
+        <v>48.0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E16" t="n">
-        <v>22.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>286.0</v>
+        <v>920.0</v>
       </c>
       <c r="B17" t="n">
-        <v>259.0</v>
+        <v>832.0</v>
       </c>
       <c r="C17" t="n">
-        <v>34.0</v>
+        <v>80.0</v>
       </c>
       <c r="D17" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E17" t="n">
-        <v>25.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>325.0</v>
+        <v>992.0</v>
       </c>
       <c r="B18" t="n">
-        <v>291.0</v>
+        <v>875.0</v>
       </c>
       <c r="C18" t="n">
-        <v>39.0</v>
+        <v>72.0</v>
       </c>
       <c r="D18" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E18" t="n">
-        <v>32.0</v>
+        <v>116.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>364.0</v>
+        <v>1084.0</v>
       </c>
       <c r="B19" t="n">
-        <v>323.0</v>
+        <v>942.0</v>
       </c>
       <c r="C19" t="n">
-        <v>39.0</v>
+        <v>92.0</v>
       </c>
       <c r="D19" t="n">
         <v>2.0</v>
       </c>
       <c r="E19" t="n">
-        <v>39.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>411.0</v>
+        <v>1171.0</v>
       </c>
       <c r="B20" t="n">
-        <v>368.0</v>
+        <v>1006.0</v>
       </c>
       <c r="C20" t="n">
-        <v>47.0</v>
+        <v>87.0</v>
       </c>
       <c r="D20" t="n">
         <v>2.0</v>
       </c>
       <c r="E20" t="n">
-        <v>41.0</v>
+        <v>163.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>452.0</v>
+        <v>1275.0</v>
       </c>
       <c r="B21" t="n">
-        <v>395.0</v>
+        <v>1077.0</v>
       </c>
       <c r="C21" t="n">
-        <v>41.0</v>
+        <v>104.0</v>
       </c>
       <c r="D21" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E21" t="n">
-        <v>54.0</v>
+        <v>196.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>499.0</v>
+        <v>1399.0</v>
       </c>
       <c r="B22" t="n">
-        <v>432.0</v>
+        <v>1170.0</v>
       </c>
       <c r="C22" t="n">
-        <v>47.0</v>
+        <v>124.0</v>
       </c>
       <c r="D22" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E22" t="n">
-        <v>63.0</v>
+        <v>226.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>562.0</v>
+        <v>1525.0</v>
       </c>
       <c r="B23" t="n">
-        <v>481.0</v>
+        <v>1253.0</v>
       </c>
       <c r="C23" t="n">
-        <v>63.0</v>
+        <v>126.0</v>
       </c>
       <c r="D23" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E23" t="n">
-        <v>77.0</v>
+        <v>269.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>627.0</v>
+        <v>1622.0</v>
       </c>
       <c r="B24" t="n">
-        <v>534.0</v>
+        <v>1306.0</v>
       </c>
       <c r="C24" t="n">
-        <v>65.0</v>
+        <v>97.0</v>
       </c>
       <c r="D24" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E24" t="n">
-        <v>89.0</v>
+        <v>313.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>692.0</v>
+        <v>1763.0</v>
       </c>
       <c r="B25" t="n">
-        <v>584.0</v>
+        <v>1406.0</v>
       </c>
       <c r="C25" t="n">
-        <v>65.0</v>
+        <v>141.0</v>
       </c>
       <c r="D25" t="n">
         <v>4.0</v>
       </c>
       <c r="E25" t="n">
-        <v>104.0</v>
+        <v>353.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>768.0</v>
+        <v>1872.0</v>
       </c>
       <c r="B26" t="n">
-        <v>636.0</v>
+        <v>1460.0</v>
       </c>
       <c r="C26" t="n">
-        <v>76.0</v>
+        <v>109.0</v>
       </c>
       <c r="D26" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E26" t="n">
-        <v>127.0</v>
+        <v>408.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>845.0</v>
+        <v>2000.0</v>
       </c>
       <c r="B27" t="n">
-        <v>691.0</v>
+        <v>1536.0</v>
       </c>
       <c r="C27" t="n">
-        <v>77.0</v>
+        <v>128.0</v>
       </c>
       <c r="D27" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E27" t="n">
-        <v>149.0</v>
+        <v>460.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>916.0</v>
+        <v>2117.0</v>
       </c>
       <c r="B28" t="n">
-        <v>744.0</v>
+        <v>1598.0</v>
       </c>
       <c r="C28" t="n">
-        <v>71.0</v>
+        <v>117.0</v>
       </c>
       <c r="D28" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E28" t="n">
-        <v>167.0</v>
+        <v>515.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>996.0</v>
+        <v>2245.0</v>
       </c>
       <c r="B29" t="n">
-        <v>789.0</v>
+        <v>1667.0</v>
       </c>
       <c r="C29" t="n">
-        <v>80.0</v>
+        <v>128.0</v>
       </c>
       <c r="D29" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E29" t="n">
-        <v>200.0</v>
+        <v>574.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1091.0</v>
+        <v>2370.0</v>
       </c>
       <c r="B30" t="n">
-        <v>860.0</v>
+        <v>1724.0</v>
       </c>
       <c r="C30" t="n">
-        <v>95.0</v>
+        <v>125.0</v>
       </c>
       <c r="D30" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E30" t="n">
-        <v>223.0</v>
+        <v>642.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1184.0</v>
+        <v>2510.0</v>
       </c>
       <c r="B31" t="n">
-        <v>920.0</v>
+        <v>1791.0</v>
       </c>
       <c r="C31" t="n">
-        <v>93.0</v>
+        <v>140.0</v>
       </c>
       <c r="D31" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="E31" t="n">
-        <v>253.0</v>
+        <v>712.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1286.0</v>
+        <v>2623.0</v>
       </c>
       <c r="B32" t="n">
-        <v>979.0</v>
+        <v>1804.0</v>
       </c>
       <c r="C32" t="n">
-        <v>102.0</v>
+        <v>113.0</v>
       </c>
       <c r="D32" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="E32" t="n">
-        <v>296.0</v>
+        <v>810.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1400.0</v>
+        <v>2744.0</v>
       </c>
       <c r="B33" t="n">
-        <v>1044.0</v>
+        <v>1833.0</v>
       </c>
       <c r="C33" t="n">
-        <v>114.0</v>
+        <v>121.0</v>
       </c>
       <c r="D33" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="E33" t="n">
-        <v>344.0</v>
+        <v>902.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1530.0</v>
+        <v>2858.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1123.0</v>
+        <v>1859.0</v>
       </c>
       <c r="C34" t="n">
-        <v>130.0</v>
+        <v>114.0</v>
       </c>
       <c r="D34" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="E34" t="n">
-        <v>394.0</v>
+        <v>987.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1665.0</v>
+        <v>3005.0</v>
       </c>
       <c r="B35" t="n">
-        <v>1202.0</v>
+        <v>1909.0</v>
       </c>
       <c r="C35" t="n">
-        <v>135.0</v>
+        <v>147.0</v>
       </c>
       <c r="D35" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="E35" t="n">
-        <v>450.0</v>
+        <v>1084.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1787.0</v>
+        <v>3169.0</v>
       </c>
       <c r="B36" t="n">
-        <v>1259.0</v>
+        <v>1969.0</v>
       </c>
       <c r="C36" t="n">
-        <v>122.0</v>
+        <v>164.0</v>
       </c>
       <c r="D36" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="E36" t="n">
-        <v>514.0</v>
+        <v>1188.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1951.0</v>
+        <v>3324.0</v>
       </c>
       <c r="B37" t="n">
-        <v>1377.0</v>
+        <v>2011.0</v>
       </c>
       <c r="C37" t="n">
-        <v>164.0</v>
+        <v>155.0</v>
       </c>
       <c r="D37" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="E37" t="n">
-        <v>560.0</v>
+        <v>1300.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2134.0</v>
+        <v>3486.0</v>
       </c>
       <c r="B38" t="n">
-        <v>1490.0</v>
+        <v>2061.0</v>
       </c>
       <c r="C38" t="n">
-        <v>183.0</v>
+        <v>162.0</v>
       </c>
       <c r="D38" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="E38" t="n">
-        <v>628.0</v>
+        <v>1410.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2339.0</v>
+        <v>3691.0</v>
       </c>
       <c r="B39" t="n">
-        <v>1617.0</v>
+        <v>2133.0</v>
       </c>
       <c r="C39" t="n">
         <v>205.0</v>
       </c>
       <c r="D39" t="n">
-        <v>19.0</v>
+        <v>16.0</v>
       </c>
       <c r="E39" t="n">
-        <v>703.0</v>
+        <v>1542.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2542.0</v>
+        <v>3891.0</v>
       </c>
       <c r="B40" t="n">
-        <v>1745.0</v>
+        <v>2211.0</v>
       </c>
       <c r="C40" t="n">
-        <v>203.0</v>
+        <v>200.0</v>
       </c>
       <c r="D40" t="n">
-        <v>20.0</v>
+        <v>17.0</v>
       </c>
       <c r="E40" t="n">
-        <v>777.0</v>
+        <v>1663.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2751.0</v>
+        <v>4130.0</v>
       </c>
       <c r="B41" t="n">
-        <v>1875.0</v>
+        <v>2332.0</v>
       </c>
       <c r="C41" t="n">
-        <v>209.0</v>
+        <v>239.0</v>
       </c>
       <c r="D41" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="E41" t="n">
-        <v>855.0</v>
+        <v>1779.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3031.0</v>
+        <v>4380.0</v>
       </c>
       <c r="B42" t="n">
-        <v>2051.0</v>
+        <v>2476.0</v>
       </c>
       <c r="C42" t="n">
-        <v>280.0</v>
+        <v>250.0</v>
       </c>
       <c r="D42" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="E42" t="n">
-        <v>956.0</v>
+        <v>1882.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3339.0</v>
+        <v>4635.0</v>
       </c>
       <c r="B43" t="n">
-        <v>2265.0</v>
+        <v>2606.0</v>
       </c>
       <c r="C43" t="n">
-        <v>308.0</v>
+        <v>255.0</v>
       </c>
       <c r="D43" t="n">
-        <v>30.0</v>
+        <v>22.0</v>
       </c>
       <c r="E43" t="n">
-        <v>1044.0</v>
+        <v>2007.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3654.0</v>
+        <v>4926.0</v>
       </c>
       <c r="B44" t="n">
-        <v>2474.0</v>
+        <v>2774.0</v>
       </c>
       <c r="C44" t="n">
-        <v>315.0</v>
+        <v>291.0</v>
       </c>
       <c r="D44" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="E44" t="n">
-        <v>1148.0</v>
+        <v>2128.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4009.0</v>
+        <v>5247.0</v>
       </c>
       <c r="B45" t="n">
-        <v>2726.0</v>
+        <v>2961.0</v>
       </c>
       <c r="C45" t="n">
-        <v>355.0</v>
+        <v>321.0</v>
       </c>
       <c r="D45" t="n">
-        <v>33.0</v>
+        <v>26.0</v>
       </c>
       <c r="E45" t="n">
-        <v>1250.0</v>
+        <v>2260.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4392.0</v>
+        <v>5601.0</v>
       </c>
       <c r="B46" t="n">
-        <v>2996.0</v>
+        <v>3185.0</v>
       </c>
       <c r="C46" t="n">
-        <v>383.0</v>
+        <v>354.0</v>
       </c>
       <c r="D46" t="n">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
       <c r="E46" t="n">
-        <v>1360.0</v>
+        <v>2390.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4814.0</v>
+        <v>5962.0</v>
       </c>
       <c r="B47" t="n">
-        <v>3290.0</v>
+        <v>3391.0</v>
       </c>
       <c r="C47" t="n">
-        <v>422.0</v>
+        <v>361.0</v>
       </c>
       <c r="D47" t="n">
-        <v>37.0</v>
+        <v>28.0</v>
       </c>
       <c r="E47" t="n">
-        <v>1487.0</v>
+        <v>2543.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5306.0</v>
+        <v>6371.0</v>
       </c>
       <c r="B48" t="n">
-        <v>3633.0</v>
+        <v>3650.0</v>
       </c>
       <c r="C48" t="n">
-        <v>492.0</v>
+        <v>409.0</v>
       </c>
       <c r="D48" t="n">
-        <v>37.0</v>
+        <v>30.0</v>
       </c>
       <c r="E48" t="n">
-        <v>1636.0</v>
+        <v>2691.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5877.0</v>
+        <v>6805.0</v>
       </c>
       <c r="B49" t="n">
-        <v>4043.0</v>
+        <v>3937.0</v>
       </c>
       <c r="C49" t="n">
-        <v>571.0</v>
+        <v>434.0</v>
       </c>
       <c r="D49" t="n">
-        <v>38.0</v>
+        <v>31.0</v>
       </c>
       <c r="E49" t="n">
-        <v>1796.0</v>
+        <v>2837.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>6452.0</v>
+        <v>7276.0</v>
       </c>
       <c r="B50" t="n">
-        <v>4450.0</v>
+        <v>4214.0</v>
       </c>
       <c r="C50" t="n">
-        <v>575.0</v>
+        <v>471.0</v>
       </c>
       <c r="D50" t="n">
-        <v>41.0</v>
+        <v>34.0</v>
       </c>
       <c r="E50" t="n">
-        <v>1961.0</v>
+        <v>3028.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>7070.0</v>
+        <v>7806.0</v>
       </c>
       <c r="B51" t="n">
-        <v>4908.0</v>
+        <v>4569.0</v>
       </c>
       <c r="C51" t="n">
-        <v>618.0</v>
+        <v>530.0</v>
       </c>
       <c r="D51" t="n">
-        <v>44.0</v>
+        <v>35.0</v>
       </c>
       <c r="E51" t="n">
-        <v>2118.0</v>
+        <v>3202.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>7753.0</v>
+        <v>8338.0</v>
       </c>
       <c r="B52" t="n">
-        <v>5372.0</v>
+        <v>4891.0</v>
       </c>
       <c r="C52" t="n">
-        <v>683.0</v>
+        <v>532.0</v>
       </c>
       <c r="D52" t="n">
-        <v>47.0</v>
+        <v>37.0</v>
       </c>
       <c r="E52" t="n">
-        <v>2334.0</v>
+        <v>3410.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>8509.0</v>
+        <v>8990.0</v>
       </c>
       <c r="B53" t="n">
-        <v>5881.0</v>
+        <v>5312.0</v>
       </c>
       <c r="C53" t="n">
-        <v>756.0</v>
+        <v>652.0</v>
       </c>
       <c r="D53" t="n">
-        <v>51.0</v>
+        <v>37.0</v>
       </c>
       <c r="E53" t="n">
-        <v>2577.0</v>
+        <v>3641.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>9290.0</v>
+        <v>9651.0</v>
       </c>
       <c r="B54" t="n">
-        <v>6416.0</v>
+        <v>5748.0</v>
       </c>
       <c r="C54" t="n">
-        <v>781.0</v>
+        <v>661.0</v>
       </c>
       <c r="D54" t="n">
-        <v>54.0</v>
+        <v>41.0</v>
       </c>
       <c r="E54" t="n">
-        <v>2820.0</v>
+        <v>3862.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>10139.0</v>
+        <v>10389.0</v>
       </c>
       <c r="B55" t="n">
-        <v>6982.0</v>
+        <v>6250.0</v>
       </c>
       <c r="C55" t="n">
-        <v>849.0</v>
+        <v>738.0</v>
       </c>
       <c r="D55" t="n">
-        <v>58.0</v>
+        <v>43.0</v>
       </c>
       <c r="E55" t="n">
-        <v>3099.0</v>
+        <v>4096.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>10990.0</v>
+        <v>11109.0</v>
       </c>
       <c r="B56" t="n">
-        <v>7520.0</v>
+        <v>6710.0</v>
       </c>
       <c r="C56" t="n">
-        <v>851.0</v>
+        <v>720.0</v>
       </c>
       <c r="D56" t="n">
-        <v>61.0</v>
+        <v>46.0</v>
       </c>
       <c r="E56" t="n">
-        <v>3409.0</v>
+        <v>4353.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>11894.0</v>
+        <v>11835.0</v>
       </c>
       <c r="B57" t="n">
-        <v>8088.0</v>
+        <v>7108.0</v>
       </c>
       <c r="C57" t="n">
-        <v>904.0</v>
+        <v>726.0</v>
       </c>
       <c r="D57" t="n">
-        <v>68.0</v>
+        <v>52.0</v>
       </c>
       <c r="E57" t="n">
-        <v>3738.0</v>
+        <v>4675.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>12890.0</v>
+        <v>12589.0</v>
       </c>
       <c r="B58" t="n">
-        <v>8690.0</v>
+        <v>7538.0</v>
       </c>
       <c r="C58" t="n">
-        <v>996.0</v>
+        <v>754.0</v>
       </c>
       <c r="D58" t="n">
-        <v>74.0</v>
+        <v>54.0</v>
       </c>
       <c r="E58" t="n">
-        <v>4126.0</v>
+        <v>4997.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>13921.0</v>
+        <v>13380.0</v>
       </c>
       <c r="B59" t="n">
-        <v>9303.0</v>
+        <v>7981.0</v>
       </c>
       <c r="C59" t="n">
-        <v>1031.0</v>
+        <v>791.0</v>
       </c>
       <c r="D59" t="n">
-        <v>83.0</v>
+        <v>60.0</v>
       </c>
       <c r="E59" t="n">
-        <v>4535.0</v>
+        <v>5339.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>15032.0</v>
+        <v>14281.0</v>
       </c>
       <c r="B60" t="n">
-        <v>9936.0</v>
+        <v>8514.0</v>
       </c>
       <c r="C60" t="n">
-        <v>1111.0</v>
+        <v>901.0</v>
       </c>
       <c r="D60" t="n">
-        <v>90.0</v>
+        <v>65.0</v>
       </c>
       <c r="E60" t="n">
-        <v>5006.0</v>
+        <v>5702.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>16183.0</v>
+        <v>15176.0</v>
       </c>
       <c r="B61" t="n">
-        <v>10568.0</v>
+        <v>8973.0</v>
       </c>
       <c r="C61" t="n">
-        <v>1151.0</v>
+        <v>895.0</v>
       </c>
       <c r="D61" t="n">
-        <v>96.0</v>
+        <v>68.0</v>
       </c>
       <c r="E61" t="n">
-        <v>5519.0</v>
+        <v>6135.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>17390.0</v>
+        <v>16171.0</v>
       </c>
       <c r="B62" t="n">
-        <v>11227.0</v>
+        <v>9509.0</v>
       </c>
       <c r="C62" t="n">
-        <v>1207.0</v>
+        <v>995.0</v>
       </c>
       <c r="D62" t="n">
-        <v>105.0</v>
+        <v>73.0</v>
       </c>
       <c r="E62" t="n">
-        <v>6058.0</v>
+        <v>6589.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>17180.0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>10010.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1009.0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>7090.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>18308.0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>10628.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1128.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>7596.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>19466.0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>11238.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1158.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>8139.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>20694.0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>11816.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1228.0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>8784.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>5902.0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>2864.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>278.0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2998.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>6169.0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2964.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>267.0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3165.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>6478.0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3104.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>309.0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>3332.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>6802.0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3254.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3502.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>7146.0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>3411.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>344.0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3687.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>7443.0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>3516.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>297.0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3876.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>7841.0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>3689.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>4096.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>8214.0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>3861.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>373.0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>4294.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>8574.0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>3985.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>4527.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>8980.0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>4169.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>406.0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>4748.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>9383.0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>4333.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>403.0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>4982.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>9778.0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>4486.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>395.0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>5221.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>10232.0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>4660.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>454.0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>5498.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>10693.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>4850.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>461.0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>5765.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>11166.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>5062.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>473.0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>6022.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>11668.0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>5274.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>502.0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>6307.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>12154.0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>5448.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>486.0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>6614.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>12710.0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>5650.0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>556.0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>6964.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>13257.0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>5846.0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>547.0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>7310.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>13842.0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>6130.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>585.0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>7609.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>14479.0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>6396.0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>637.0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>7975.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>15081.0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>6614.0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>602.0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>8353.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>15752.0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>6906.0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>671.0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>8729.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>16451.0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>7225.0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>699.0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>9105.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>17157.0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>7510.0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>706.0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>9519.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>17999.0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>7891.0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>842.0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>9973.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>18798.0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>8247.0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>799.0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>143.0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>10408.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>19672.0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>8616.0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>874.0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>10904.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>20547.0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>8972.0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>875.0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>11414.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>21360.0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>9286.0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>813.0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>168.0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>11906.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>22280.0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>9679.0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>920.0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>12427.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>23198.0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>10017.0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>918.0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>13004.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>24160.0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>10405.0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>962.0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>13568.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>25155.0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>10763.0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>995.0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>14196.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>26149.0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>11097.0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>994.0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>14845.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>27138.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>11436.0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>989.0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>15486.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>28195.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>11797.0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1057.0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>227.0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>16171.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>29247.0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>12122.0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1052.0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>241.0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>16884.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>30306.0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>12440.0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1059.0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>17614.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>31386.0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>12712.0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1080.0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>263.0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>18411.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>32525.0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>13065.0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1139.0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>279.0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>19181.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>33704.0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>13418.0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1179.0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>290.0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>19996.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>34930.0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>13792.0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1226.0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>303.0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>20835.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>36234.0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>14199.0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1304.0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>21719.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>37597.0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>14652.0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1363.0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>327.0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>22618.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>38915.0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>14986.0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1318.0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>341.0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>23588.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>40348.0</v>
+      </c>
+      <c r="B113" t="n">
+        <v>15475.0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1433.0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>24517.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>41808.0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>15914.0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1460.0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>371.0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>25523.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>43348.0</v>
+      </c>
+      <c r="B115" t="n">
+        <v>16407.0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1540.0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>388.0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>26553.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>44963.0</v>
+      </c>
+      <c r="B116" t="n">
+        <v>17003.0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1615.0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>404.0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>27556.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>46514.0</v>
+      </c>
+      <c r="B117" t="n">
+        <v>17505.0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1551.0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>415.0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>28594.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>48149.0</v>
+      </c>
+      <c r="B118" t="n">
+        <v>18063.0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1635.0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>423.0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>29663.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>49940.0</v>
+      </c>
+      <c r="B119" t="n">
+        <v>18730.0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1791.0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>443.0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>30767.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>51862.0</v>
+      </c>
+      <c r="B120" t="n">
+        <v>19541.0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1922.0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>459.0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>31862.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>53815.0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>20324.0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1953.0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>477.0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>33014.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>55800.0</v>
+      </c>
+      <c r="B122" t="n">
+        <v>21101.0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1985.0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>492.0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>34207.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>57766.0</v>
+      </c>
+      <c r="B123" t="n">
+        <v>21783.0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1966.0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>507.0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>35476.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>59870.0</v>
+      </c>
+      <c r="B124" t="n">
+        <v>22547.0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2104.0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>526.0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>36797.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>62024.0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>23333.0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2154.0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>548.0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>38143.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>64230.0</v>
+      </c>
+      <c r="B126" t="n">
+        <v>24194.0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2206.0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>560.0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>39476.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>66509.0</v>
+      </c>
+      <c r="B127" t="n">
+        <v>25006.0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2279.0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>581.0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>40922.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>68906.0</v>
+      </c>
+      <c r="B128" t="n">
+        <v>25899.0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2397.0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>606.0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>42401.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>71397.0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>26796.0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2491.0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>630.0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>43971.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>73914.0</v>
+      </c>
+      <c r="B130" t="n">
+        <v>27667.0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2517.0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>648.0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>45599.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>76441.0</v>
+      </c>
+      <c r="B131" t="n">
+        <v>28455.0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2527.0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>670.0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>47316.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>79163.0</v>
+      </c>
+      <c r="B132" t="n">
+        <v>29442.0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2722.0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>696.0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>49025.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>81826.0</v>
+      </c>
+      <c r="B133" t="n">
+        <v>30292.0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2663.0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>724.0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>50810.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>84591.0</v>
+      </c>
+      <c r="B134" t="n">
+        <v>31235.0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2765.0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>743.0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>52613.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>87496.0</v>
+      </c>
+      <c r="B135" t="n">
+        <v>32168.0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2905.0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>775.0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>54553.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>90377.0</v>
+      </c>
+      <c r="B136" t="n">
+        <v>32889.0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2881.0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>807.0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>56681.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>93351.0</v>
+      </c>
+      <c r="B137" t="n">
+        <v>33843.0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2974.0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>838.0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>58670.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>96292.0</v>
+      </c>
+      <c r="B138" t="n">
+        <v>34648.0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2941.0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>862.0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>60782.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>99399.0</v>
+      </c>
+      <c r="B139" t="n">
+        <v>35577.0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>3107.0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>894.0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>62928.0</v>
       </c>
     </row>
   </sheetData>
